--- a/KosmosV4System/doc/sourcing/ElectroniqueV4Mono.xlsx
+++ b/KosmosV4System/doc/sourcing/ElectroniqueV4Mono.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocV4\KosmosV4System\doc\sourcing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocumentationsKOSMOS\KosmosV4System\doc\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E7B209-0624-42BA-979D-8DE5CEDD9401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A37E744-A6E4-4E62-804E-1F808B2373E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-9210" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste_Materiel" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="176">
   <si>
     <t>Dernière mise à jour :</t>
   </si>
@@ -557,6 +557,15 @@
   </si>
   <si>
     <t>https://www.gotronic.fr/art-boite-de-276-gaines-ftk201-5136.htm</t>
+  </si>
+  <si>
+    <t>Preciva Pince à Sertir avec 1350pcs Connecteur Jst, 0.08-1mm² (AWG28-18) Cosses Electriques a Sertir avec 550 Connecteurs JST-XH et 800 broches JST-XH</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/0-08-1mm%C2%B2-Preciva-Sertissage-Connecteurs-Connecteur/dp/B0CVVXWQV1/ref=sr_1_6?__mk_fr_FR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>JST + pince à sertir</t>
   </si>
 </sst>
 </file>
@@ -1293,11 +1302,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFB112"/>
+  <dimension ref="A1:XFB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33:I33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1336,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46044</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
@@ -1456,7 +1465,7 @@
         <v>6.9</v>
       </c>
       <c r="J6" s="23">
-        <f t="shared" ref="J6:J58" si="0">G6*I6</f>
+        <f t="shared" ref="J6:J59" si="0">G6*I6</f>
         <v>6.9</v>
       </c>
       <c r="XEZ6" s="7"/>
@@ -2942,178 +2951,198 @@
       <c r="XFB51" s="7"/>
     </row>
     <row r="52" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="18"/>
+      <c r="A52" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="E52" s="19"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="22"/>
+      <c r="F52" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="22">
+        <v>1</v>
+      </c>
       <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="I52" s="23">
+        <v>29.99</v>
+      </c>
       <c r="J52" s="23">
-        <f>G52*I52</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>29.99</v>
       </c>
       <c r="XEZ52" s="7"/>
       <c r="XFA52" s="6"/>
       <c r="XFB52" s="7"/>
     </row>
     <row r="53" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
-        <v>81</v>
-      </c>
+      <c r="A53" s="20"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="42"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="18"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
-      <c r="I53" s="43"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="23">
-        <f t="shared" si="0"/>
+        <f>G53*I53</f>
         <v>0</v>
       </c>
       <c r="XEZ53" s="7"/>
       <c r="XFA53" s="6"/>
       <c r="XFB53" s="7"/>
     </row>
-    <row r="54" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+    <row r="54" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="XEZ54" s="7"/>
+      <c r="XFA54" s="6"/>
+      <c r="XFB54" s="7"/>
+    </row>
+    <row r="55" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B55" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C55" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D55" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="28" t="s">
+      <c r="E55" s="35"/>
+      <c r="F55" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G55" s="36">
         <v>9</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H55" s="30">
         <v>7.08</v>
       </c>
-      <c r="I54" s="49">
-        <f>H54*1.2</f>
+      <c r="I55" s="49">
+        <f>H55*1.2</f>
         <v>8.4960000000000004</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J55" s="23">
         <f t="shared" si="0"/>
         <v>76.463999999999999</v>
       </c>
-      <c r="XFA54" s="6"/>
-    </row>
-    <row r="55" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="23">
+      <c r="XFA55" s="6"/>
+    </row>
+    <row r="56" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="XFA55" s="6"/>
-    </row>
-    <row r="56" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="XFA56" s="6"/>
+    </row>
+    <row r="57" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="23">
+      <c r="B57" s="33"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="XEZ56" s="7"/>
-      <c r="XFA56" s="6"/>
-      <c r="XFB56" s="7"/>
-    </row>
-    <row r="57" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="22">
-        <v>1</v>
-      </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="50">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J57" s="23">
-        <f t="shared" si="0"/>
-        <v>2.0499999999999998</v>
       </c>
       <c r="XEZ57" s="7"/>
       <c r="XFA57" s="6"/>
       <c r="XFB57" s="7"/>
     </row>
-    <row r="58" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="43"/>
+    <row r="58" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="33"/>
+      <c r="F58" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="22">
+        <v>1</v>
+      </c>
+      <c r="H58" s="23"/>
+      <c r="I58" s="50">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="J58" s="23">
         <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="XEZ58" s="7"/>
+      <c r="XFA58" s="6"/>
+      <c r="XFB58" s="7"/>
+    </row>
+    <row r="59" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="5"/>
-      <c r="XEZ59" s="7"/>
-      <c r="XFA59" s="6"/>
-      <c r="XFB59" s="7"/>
-    </row>
-    <row r="60" spans="1:10 16380:16382" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="I60" s="39"/>
       <c r="J60" s="5"/>
       <c r="XEZ60" s="7"/>
       <c r="XFA60" s="6"/>
@@ -3179,10 +3208,17 @@
       <c r="XFA65" s="6"/>
       <c r="XFB65" s="7"/>
     </row>
-    <row r="66" spans="2:10 16377:16382" x14ac:dyDescent="0.25">
-      <c r="XEW66" s="4"/>
-      <c r="XEX66" s="4"/>
-      <c r="XEY66" s="4"/>
+    <row r="66" spans="2:10 16377:16382" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="XEZ66" s="7"/>
+      <c r="XFA66" s="6"/>
+      <c r="XFB66" s="7"/>
     </row>
     <row r="67" spans="2:10 16377:16382" x14ac:dyDescent="0.25">
       <c r="XEW67" s="4"/>
@@ -3413,6 +3449,11 @@
       <c r="XEW112" s="4"/>
       <c r="XEX112" s="4"/>
       <c r="XEY112" s="4"/>
+    </row>
+    <row r="113" spans="16377:16379" x14ac:dyDescent="0.25">
+      <c r="XEW113" s="4"/>
+      <c r="XEX113" s="4"/>
+      <c r="XEY113" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3421,7 +3462,7 @@
   <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F54" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F55" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="F44" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="F36" r:id="rId4" xr:uid="{BFB26870-5BB8-42FF-8741-2856056A352B}"/>
     <hyperlink ref="F26" r:id="rId5" xr:uid="{DF8E217F-59F6-4C9A-8701-2A1B8851FC16}"/>
@@ -3429,7 +3470,7 @@
     <hyperlink ref="F22" r:id="rId7" xr:uid="{64F96D35-1B54-467E-94A7-D1CF6149899D}"/>
     <hyperlink ref="F21" r:id="rId8" xr:uid="{C71BCB4E-920E-44B9-8E06-77FBBC7EDA38}"/>
     <hyperlink ref="F14" r:id="rId9" xr:uid="{C7AD9874-BDC0-4876-895E-DC67D04E63DF}"/>
-    <hyperlink ref="F57" r:id="rId10" xr:uid="{057C4E32-6411-48A0-A955-811607A8685C}"/>
+    <hyperlink ref="F58" r:id="rId10" xr:uid="{057C4E32-6411-48A0-A955-811607A8685C}"/>
     <hyperlink ref="F45" r:id="rId11" xr:uid="{F3AA9344-D6BB-4645-9AE8-33352B26572B}"/>
     <hyperlink ref="F46" r:id="rId12" xr:uid="{05389B03-51DA-4596-B97A-B05B848B1568}"/>
     <hyperlink ref="F47" r:id="rId13" xr:uid="{673933F5-AE4C-4D19-9FF2-2F59AFC3F5D5}"/>
@@ -3457,8 +3498,9 @@
     <hyperlink ref="F15" r:id="rId35" xr:uid="{4268AC7F-F98B-454B-99A7-709A890E0067}"/>
     <hyperlink ref="F20" r:id="rId36" xr:uid="{F99B450A-7707-454C-B7F4-FC1814E302DD}"/>
     <hyperlink ref="F33" r:id="rId37" xr:uid="{FCE17CA8-D2EE-4B2B-A840-8C79643E9AA1}"/>
+    <hyperlink ref="F52" r:id="rId38" xr:uid="{D269EAF8-32D0-41DA-8AA0-B1E159296A41}"/>
   </hyperlinks>
   <pageMargins left="0.62361111111111101" right="0.58055555555555605" top="0.48958333333333298" bottom="0.57430555555555596" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="8" scale="42" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <pageSetup paperSize="8" scale="42" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
 </worksheet>
 </file>
--- a/KosmosV4System/doc/sourcing/ElectroniqueV4Mono.xlsx
+++ b/KosmosV4System/doc/sourcing/ElectroniqueV4Mono.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocumentationsKOSMOS\KosmosV4System\doc\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A37E744-A6E4-4E62-804E-1F808B2373E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA983C5-DBA0-4DD7-905F-DA37169A5B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9210" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-8400" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste_Materiel" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
   <si>
     <t>Dernière mise à jour :</t>
   </si>
@@ -382,12 +382,6 @@
   </si>
   <si>
     <t>16 95 01 SB</t>
-  </si>
-  <si>
-    <t>Pince à Sertir, Pince à Sertir à Clique 0,5-6 mm² avec Boîte, 18 Types, 350pcs Cosses Electriques, Sertisseuse Electrique, pour Installations Électriques et Réparations de Véhicules</t>
-  </si>
-  <si>
-    <t>https://www.amazon.fr/ZZXLOPEZ-Electriques-Sertisseuse-Installations-%C3%89lectriques/dp/B0FLQ69L66/ref=sr_1_43?sr=8-43</t>
   </si>
   <si>
     <t>https://www.gotronic.fr/art-carte-raspberry-pi-5-8-gb-38177.htm</t>
@@ -566,6 +560,33 @@
   </si>
   <si>
     <t>JST + pince à sertir</t>
+  </si>
+  <si>
+    <t>Pince à sertir RJ 45</t>
+  </si>
+  <si>
+    <t>Pince à sertir HT210</t>
+  </si>
+  <si>
+    <t>13088</t>
+  </si>
+  <si>
+    <t>https://www.gotronic.fr/art-pince-a-sertir-ht210-7050.htm</t>
+  </si>
+  <si>
+    <t>Connecteur RJ45</t>
+  </si>
+  <si>
+    <t>Connecteur RJ 45</t>
+  </si>
+  <si>
+    <t>Video &amp; Cable ethernet</t>
+  </si>
+  <si>
+    <t>08532</t>
+  </si>
+  <si>
+    <t>https://www.gotronic.fr/art-connecteur-rj45-4912.htm</t>
   </si>
 </sst>
 </file>
@@ -1302,11 +1323,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFB113"/>
+  <dimension ref="A1:XFB114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1357,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
@@ -1417,7 +1438,7 @@
         <v>38580</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="22">
         <v>1</v>
@@ -1453,7 +1474,7 @@
         <v>38644</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G6" s="22">
         <v>1</v>
@@ -1465,7 +1486,7 @@
         <v>6.9</v>
       </c>
       <c r="J6" s="23">
-        <f t="shared" ref="J6:J59" si="0">G6*I6</f>
+        <f t="shared" ref="J6:J60" si="0">G6*I6</f>
         <v>6.9</v>
       </c>
       <c r="XEZ6" s="7"/>
@@ -1489,7 +1510,7 @@
         <v>11937</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G7" s="22">
         <v>1</v>
@@ -1519,13 +1540,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>160</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>162</v>
       </c>
       <c r="G8" s="29">
         <v>1</v>
@@ -1559,7 +1580,7 @@
         <v>90</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G9" s="22">
         <v>1</v>
@@ -1583,7 +1604,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>26</v>
@@ -1619,7 +1640,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>66</v>
@@ -1631,7 +1652,7 @@
         <v>92</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G11" s="22">
         <v>1</v>
@@ -1655,7 +1676,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>67</v>
@@ -1667,7 +1688,7 @@
         <v>94</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G12" s="22">
         <v>1</v>
@@ -1703,7 +1724,7 @@
         <v>11583</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G13" s="22">
         <v>1</v>
@@ -1730,7 +1751,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>23</v>
@@ -1766,19 +1787,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>164</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>166</v>
       </c>
       <c r="G15" s="22">
         <v>1</v>
@@ -1802,10 +1823,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="56"/>
@@ -1828,10 +1849,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="56"/>
@@ -1854,15 +1875,17 @@
         <v>19</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="56"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="22">
+        <v>2</v>
+      </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23">
@@ -1878,19 +1901,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>158</v>
-      </c>
       <c r="F19" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G19" s="22">
         <v>1</v>
@@ -1914,7 +1937,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>20</v>
@@ -1923,7 +1946,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F20" s="40" t="s">
         <v>22</v>
@@ -2037,7 +2060,7 @@
         <v>86</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
@@ -2112,7 +2135,7 @@
         <v>11356</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G25" s="22">
         <v>1</v>
@@ -2172,19 +2195,19 @@
         <v>19</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="18" t="s">
+      <c r="F27" s="40" t="s">
         <v>129</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>131</v>
       </c>
       <c r="G27" s="22">
         <v>1</v>
@@ -2208,19 +2231,19 @@
         <v>19</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="F28" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>136</v>
       </c>
       <c r="G28" s="22">
         <v>1</v>
@@ -2244,19 +2267,19 @@
         <v>19</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="40" t="s">
         <v>137</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>139</v>
       </c>
       <c r="G29" s="22">
         <v>1</v>
@@ -2280,19 +2303,19 @@
         <v>19</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G30" s="22">
         <v>1</v>
@@ -2316,19 +2339,19 @@
         <v>19</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="56" t="s">
-        <v>147</v>
-      </c>
       <c r="F31" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G31" s="22">
         <v>1</v>
@@ -2352,19 +2375,19 @@
         <v>19</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D32" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="56" t="s">
-        <v>150</v>
-      </c>
       <c r="F32" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G32" s="22">
         <v>1</v>
@@ -2394,13 +2417,13 @@
         <v>33</v>
       </c>
       <c r="D33" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>170</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>172</v>
       </c>
       <c r="G33" s="22">
         <v>1</v>
@@ -2412,7 +2435,7 @@
         <v>25.9</v>
       </c>
       <c r="J33" s="23">
-        <f t="shared" ref="J33:J35" si="2">G33*I33</f>
+        <f t="shared" ref="J33:J37" si="2">G33*I33</f>
         <v>25.9</v>
       </c>
       <c r="XEZ33" s="7"/>
@@ -2420,80 +2443,99 @@
       <c r="XFB33" s="7"/>
     </row>
     <row r="34" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="A34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="22">
+        <v>1</v>
+      </c>
+      <c r="H34" s="23">
+        <v>14.12</v>
+      </c>
+      <c r="I34" s="23">
+        <v>16.95</v>
+      </c>
       <c r="J34" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16.95</v>
       </c>
       <c r="XEZ34" s="7"/>
       <c r="XFA34" s="6"/>
       <c r="XFB34" s="7"/>
     </row>
     <row r="35" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="23"/>
+      <c r="A35" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="22">
+        <v>2</v>
+      </c>
+      <c r="H35" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0.3</v>
+      </c>
       <c r="J35" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="XEW35" s="6"/>
-      <c r="XEX35" s="6"/>
-      <c r="XEY35" s="6"/>
+        <v>0.6</v>
+      </c>
       <c r="XEZ35" s="7"/>
       <c r="XFA35" s="6"/>
       <c r="XFB35" s="7"/>
     </row>
     <row r="36" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="A36" s="20"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="22">
-        <v>1</v>
-      </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="23">
-        <v>260</v>
-      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="23">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="XEZ36" s="7"/>
       <c r="XFA36" s="6"/>
       <c r="XFB36" s="7"/>
     </row>
     <row r="37" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="B37" s="19"/>
       <c r="C37" s="24"/>
       <c r="D37" s="18"/>
@@ -2503,7 +2545,7 @@
       <c r="H37" s="32"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="XEW37" s="6"/>
@@ -2514,59 +2556,50 @@
       <c r="XFB37" s="7"/>
     </row>
     <row r="38" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="18"/>
+      <c r="A38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="22">
+        <v>1</v>
+      </c>
       <c r="H38" s="32"/>
-      <c r="I38" s="23"/>
+      <c r="I38" s="23">
+        <v>260</v>
+      </c>
       <c r="J38" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="XEW38" s="6"/>
-      <c r="XEX38" s="6"/>
-      <c r="XEY38" s="6"/>
+        <v>260</v>
+      </c>
       <c r="XEZ38" s="7"/>
       <c r="XFA38" s="6"/>
       <c r="XFB38" s="7"/>
     </row>
     <row r="39" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="22">
-        <v>1</v>
-      </c>
-      <c r="H39" s="32">
-        <v>67.790000000000006</v>
-      </c>
-      <c r="I39" s="23">
-        <v>81.34</v>
-      </c>
+      <c r="A39" s="20"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="23">
         <f t="shared" si="0"/>
-        <v>81.34</v>
+        <v>0</v>
       </c>
       <c r="XEW39" s="6"/>
       <c r="XEX39" s="6"/>
@@ -2576,36 +2609,20 @@
       <c r="XFB39" s="7"/>
     </row>
     <row r="40" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="22">
-        <v>2</v>
-      </c>
-      <c r="H40" s="32">
-        <v>1.96</v>
-      </c>
-      <c r="I40" s="23">
-        <v>2.35</v>
-      </c>
+      <c r="A40" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="23">
         <f t="shared" si="0"/>
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="XEW40" s="6"/>
       <c r="XEX40" s="6"/>
@@ -2619,32 +2636,32 @@
         <v>102</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G41" s="22">
         <v>1</v>
       </c>
       <c r="H41" s="32">
-        <v>57.31</v>
+        <v>67.790000000000006</v>
       </c>
       <c r="I41" s="23">
-        <v>68.77</v>
+        <v>81.34</v>
       </c>
       <c r="J41" s="23">
-        <f>G41*I41</f>
-        <v>68.77</v>
+        <f t="shared" si="0"/>
+        <v>81.34</v>
       </c>
       <c r="XEW41" s="6"/>
       <c r="XEX41" s="6"/>
@@ -2654,18 +2671,36 @@
       <c r="XFB41" s="7"/>
     </row>
     <row r="42" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="23"/>
+      <c r="A42" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="22">
+        <v>2</v>
+      </c>
+      <c r="H42" s="32">
+        <v>1.96</v>
+      </c>
+      <c r="I42" s="23">
+        <v>2.35</v>
+      </c>
       <c r="J42" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="XEW42" s="6"/>
       <c r="XEX42" s="6"/>
@@ -2674,88 +2709,84 @@
       <c r="XFA42" s="6"/>
       <c r="XFB42" s="7"/>
     </row>
-    <row r="43" spans="1:10 16377:16382" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
+    <row r="43" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="22">
+        <v>1</v>
+      </c>
+      <c r="H43" s="32">
+        <v>57.31</v>
+      </c>
+      <c r="I43" s="23">
+        <v>68.77</v>
+      </c>
       <c r="J43" s="23">
+        <f>G43*I43</f>
+        <v>68.77</v>
+      </c>
+      <c r="XEW43" s="6"/>
+      <c r="XEX43" s="6"/>
+      <c r="XEY43" s="6"/>
+      <c r="XEZ43" s="7"/>
+      <c r="XFA43" s="6"/>
+      <c r="XFB43" s="7"/>
+    </row>
+    <row r="44" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="XEZ43" s="7"/>
-      <c r="XFA43" s="16"/>
-      <c r="XFB43" s="7"/>
-    </row>
-    <row r="44" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="22">
-        <v>1</v>
-      </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23">
-        <v>15.99</v>
-      </c>
-      <c r="J44" s="23">
-        <f t="shared" si="0"/>
-        <v>15.99</v>
-      </c>
+      <c r="XEW44" s="6"/>
+      <c r="XEX44" s="6"/>
+      <c r="XEY44" s="6"/>
       <c r="XEZ44" s="7"/>
       <c r="XFA44" s="6"/>
       <c r="XFB44" s="7"/>
     </row>
-    <row r="45" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="22">
-        <v>1</v>
-      </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23">
-        <v>17.38</v>
-      </c>
+    <row r="45" spans="1:10 16377:16382" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
       <c r="J45" s="23">
         <f t="shared" si="0"/>
-        <v>17.38</v>
+        <v>0</v>
       </c>
       <c r="XEZ45" s="7"/>
-      <c r="XFA45" s="6"/>
+      <c r="XFA45" s="16"/>
       <c r="XFB45" s="7"/>
     </row>
     <row r="46" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2763,28 +2794,28 @@
         <v>29</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="40" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="G46" s="22">
         <v>1</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23">
-        <v>9.99</v>
+        <v>15.99</v>
       </c>
       <c r="J46" s="23">
         <f t="shared" si="0"/>
-        <v>9.99</v>
+        <v>15.99</v>
       </c>
       <c r="XEZ46" s="7"/>
       <c r="XFA46" s="6"/>
@@ -2795,28 +2826,28 @@
         <v>29</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G47" s="22">
         <v>1</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="23">
-        <v>14.99</v>
+        <v>17.38</v>
       </c>
       <c r="J47" s="23">
         <f t="shared" si="0"/>
-        <v>14.99</v>
+        <v>17.38</v>
       </c>
       <c r="XEZ47" s="7"/>
       <c r="XFA47" s="6"/>
@@ -2827,28 +2858,28 @@
         <v>29</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="40" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G48" s="22">
         <v>1</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23">
-        <v>35.99</v>
+        <v>9.99</v>
       </c>
       <c r="J48" s="23">
         <f t="shared" si="0"/>
-        <v>35.99</v>
+        <v>9.99</v>
       </c>
       <c r="XEZ48" s="7"/>
       <c r="XFA48" s="6"/>
@@ -2861,26 +2892,26 @@
       <c r="B49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>30</v>
+      <c r="C49" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="40" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G49" s="22">
         <v>1</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="23">
-        <v>11.89</v>
+        <v>14.99</v>
       </c>
       <c r="J49" s="23">
         <f t="shared" si="0"/>
-        <v>11.89</v>
+        <v>14.99</v>
       </c>
       <c r="XEZ49" s="7"/>
       <c r="XFA49" s="6"/>
@@ -2891,28 +2922,28 @@
         <v>29</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="40" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G50" s="22">
         <v>1</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="23">
-        <v>58.99</v>
+        <v>35.99</v>
       </c>
       <c r="J50" s="23">
         <f t="shared" si="0"/>
-        <v>58.99</v>
+        <v>35.99</v>
       </c>
       <c r="XEZ50" s="7"/>
       <c r="XFA50" s="6"/>
@@ -2923,28 +2954,28 @@
         <v>29</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="40" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="G51" s="22">
         <v>1</v>
       </c>
       <c r="H51" s="23"/>
       <c r="I51" s="23">
-        <v>17.989999999999998</v>
+        <v>11.89</v>
       </c>
       <c r="J51" s="23">
         <f t="shared" si="0"/>
-        <v>17.989999999999998</v>
+        <v>11.89</v>
       </c>
       <c r="XEZ51" s="7"/>
       <c r="XFA51" s="6"/>
@@ -2955,206 +2986,226 @@
         <v>29</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="40" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="G52" s="22">
         <v>1</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23">
-        <v>29.99</v>
+        <v>58.99</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>58.99</v>
       </c>
       <c r="XEZ52" s="7"/>
       <c r="XFA52" s="6"/>
       <c r="XFB52" s="7"/>
     </row>
     <row r="53" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="18"/>
+      <c r="A53" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="E53" s="19"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="22"/>
+      <c r="F53" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="22">
+        <v>1</v>
+      </c>
       <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
+      <c r="I53" s="23">
+        <v>29.99</v>
+      </c>
       <c r="J53" s="23">
-        <f>G53*I53</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>29.99</v>
       </c>
       <c r="XEZ53" s="7"/>
       <c r="XFA53" s="6"/>
       <c r="XFB53" s="7"/>
     </row>
     <row r="54" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
-        <v>81</v>
-      </c>
+      <c r="A54" s="20"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="42"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="18"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="22"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="43"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="23">
-        <f t="shared" si="0"/>
+        <f>G54*I54</f>
         <v>0</v>
       </c>
       <c r="XEZ54" s="7"/>
       <c r="XFA54" s="6"/>
       <c r="XFB54" s="7"/>
     </row>
-    <row r="55" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
+    <row r="55" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="XEZ55" s="7"/>
+      <c r="XFA55" s="6"/>
+      <c r="XFB55" s="7"/>
+    </row>
+    <row r="56" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B56" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C56" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D56" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="28" t="s">
+      <c r="E56" s="35"/>
+      <c r="F56" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G56" s="36">
         <v>9</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H56" s="30">
         <v>7.08</v>
       </c>
-      <c r="I55" s="49">
-        <f>H55*1.2</f>
+      <c r="I56" s="49">
+        <f>H56*1.2</f>
         <v>8.4960000000000004</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J56" s="23">
         <f t="shared" si="0"/>
         <v>76.463999999999999</v>
       </c>
-      <c r="XFA55" s="6"/>
-    </row>
-    <row r="56" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="23">
+      <c r="XFA56" s="6"/>
+    </row>
+    <row r="57" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="XFA56" s="6"/>
-    </row>
-    <row r="57" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
+      <c r="XFA57" s="6"/>
+    </row>
+    <row r="58" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="23">
+      <c r="B58" s="33"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="XEZ57" s="7"/>
-      <c r="XFA57" s="6"/>
-      <c r="XFB57" s="7"/>
-    </row>
-    <row r="58" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="22">
-        <v>1</v>
-      </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="50">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J58" s="23">
-        <f t="shared" si="0"/>
-        <v>2.0499999999999998</v>
       </c>
       <c r="XEZ58" s="7"/>
       <c r="XFA58" s="6"/>
       <c r="XFB58" s="7"/>
     </row>
-    <row r="59" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="43"/>
+    <row r="59" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="22">
+        <v>1</v>
+      </c>
+      <c r="H59" s="23"/>
+      <c r="I59" s="50">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="J59" s="23">
         <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="XEZ59" s="7"/>
+      <c r="XFA59" s="6"/>
+      <c r="XFB59" s="7"/>
+    </row>
+    <row r="60" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="5"/>
-      <c r="XEZ60" s="7"/>
-      <c r="XFA60" s="6"/>
-      <c r="XFB60" s="7"/>
-    </row>
-    <row r="61" spans="1:10 16380:16382" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="I61" s="39"/>
       <c r="J61" s="5"/>
       <c r="XEZ61" s="7"/>
       <c r="XFA61" s="6"/>
@@ -3220,10 +3271,17 @@
       <c r="XFA66" s="6"/>
       <c r="XFB66" s="7"/>
     </row>
-    <row r="67" spans="2:10 16377:16382" x14ac:dyDescent="0.25">
-      <c r="XEW67" s="4"/>
-      <c r="XEX67" s="4"/>
-      <c r="XEY67" s="4"/>
+    <row r="67" spans="2:10 16377:16382" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="XEZ67" s="7"/>
+      <c r="XFA67" s="6"/>
+      <c r="XFB67" s="7"/>
     </row>
     <row r="68" spans="2:10 16377:16382" x14ac:dyDescent="0.25">
       <c r="XEW68" s="4"/>
@@ -3454,6 +3512,11 @@
       <c r="XEW113" s="4"/>
       <c r="XEX113" s="4"/>
       <c r="XEY113" s="4"/>
+    </row>
+    <row r="114" spans="16377:16379" x14ac:dyDescent="0.25">
+      <c r="XEW114" s="4"/>
+      <c r="XEX114" s="4"/>
+      <c r="XEY114" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3462,45 +3525,44 @@
   <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F55" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F44" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F36" r:id="rId4" xr:uid="{BFB26870-5BB8-42FF-8741-2856056A352B}"/>
+    <hyperlink ref="F56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F46" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F38" r:id="rId4" xr:uid="{BFB26870-5BB8-42FF-8741-2856056A352B}"/>
     <hyperlink ref="F26" r:id="rId5" xr:uid="{DF8E217F-59F6-4C9A-8701-2A1B8851FC16}"/>
     <hyperlink ref="F24" r:id="rId6" xr:uid="{C9A34607-A756-4ACB-9F50-B04E922DDE6B}"/>
     <hyperlink ref="F22" r:id="rId7" xr:uid="{64F96D35-1B54-467E-94A7-D1CF6149899D}"/>
     <hyperlink ref="F21" r:id="rId8" xr:uid="{C71BCB4E-920E-44B9-8E06-77FBBC7EDA38}"/>
     <hyperlink ref="F14" r:id="rId9" xr:uid="{C7AD9874-BDC0-4876-895E-DC67D04E63DF}"/>
-    <hyperlink ref="F58" r:id="rId10" xr:uid="{057C4E32-6411-48A0-A955-811607A8685C}"/>
-    <hyperlink ref="F45" r:id="rId11" xr:uid="{F3AA9344-D6BB-4645-9AE8-33352B26572B}"/>
-    <hyperlink ref="F46" r:id="rId12" xr:uid="{05389B03-51DA-4596-B97A-B05B848B1568}"/>
-    <hyperlink ref="F47" r:id="rId13" xr:uid="{673933F5-AE4C-4D19-9FF2-2F59AFC3F5D5}"/>
-    <hyperlink ref="F49" r:id="rId14" xr:uid="{44404973-6C89-4028-938B-E5D90DCBE423}"/>
-    <hyperlink ref="F50" r:id="rId15" xr:uid="{116D8E0B-3140-4844-85AB-D40FCE69618E}"/>
-    <hyperlink ref="F39" r:id="rId16" xr:uid="{82629390-AC3E-4A68-8ECF-BE8FDB39D43D}"/>
-    <hyperlink ref="F40" r:id="rId17" xr:uid="{72B86828-AB9A-4008-95E4-0A08BF5226D0}"/>
-    <hyperlink ref="F51" r:id="rId18" xr:uid="{175E5045-B01A-49EA-A3AB-77BF8B7454E8}"/>
-    <hyperlink ref="F5" r:id="rId19" xr:uid="{06046FFE-A198-4842-A3A9-F2336B8D2333}"/>
-    <hyperlink ref="F6" r:id="rId20" xr:uid="{9CB6AAC2-5586-4E44-94B1-FA3F89ADDB3D}"/>
-    <hyperlink ref="F7" r:id="rId21" xr:uid="{5A14520F-F507-480E-ADD0-FAC9DE84725D}"/>
-    <hyperlink ref="F8" r:id="rId22" xr:uid="{7B85981C-F9AB-454A-B211-1AAC3F35C0B7}"/>
-    <hyperlink ref="F9" r:id="rId23" xr:uid="{D91272D4-4E75-44C5-89EB-8ECB9EBC8B1D}"/>
-    <hyperlink ref="F11" r:id="rId24" xr:uid="{F09A1A80-4CA8-412D-89F2-C437AA64CE13}"/>
-    <hyperlink ref="F12" r:id="rId25" xr:uid="{CF7BCE0F-160E-4D09-B152-316BE8971316}"/>
-    <hyperlink ref="F13" r:id="rId26" xr:uid="{177EEFA0-D238-4802-985D-8CA122BEC31A}"/>
-    <hyperlink ref="F41" r:id="rId27" xr:uid="{4B3F6B25-94E0-45ED-82D6-44194A5D26CF}"/>
-    <hyperlink ref="F48" r:id="rId28" xr:uid="{FB426827-20B6-42F8-9547-93ABC7C5990E}"/>
-    <hyperlink ref="F27" r:id="rId29" xr:uid="{CC541A1A-C9A4-4570-8E4D-DD6E429ACE15}"/>
-    <hyperlink ref="F28" r:id="rId30" xr:uid="{7628B59D-8DB8-41FD-904D-8ED75673F6EF}"/>
-    <hyperlink ref="F29" r:id="rId31" xr:uid="{0B9BEE83-5B73-4D6D-B6A1-885D5D495E64}"/>
-    <hyperlink ref="F30" r:id="rId32" xr:uid="{68FCA54B-4433-4DC8-8BE0-08B3D901E5B4}"/>
-    <hyperlink ref="F32" r:id="rId33" xr:uid="{51A1F655-D4DB-4FBD-B02E-DD25A8F08C96}"/>
-    <hyperlink ref="F19" r:id="rId34" xr:uid="{33D09AD1-3019-4F27-BA7A-86146CC1394B}"/>
-    <hyperlink ref="F15" r:id="rId35" xr:uid="{4268AC7F-F98B-454B-99A7-709A890E0067}"/>
-    <hyperlink ref="F20" r:id="rId36" xr:uid="{F99B450A-7707-454C-B7F4-FC1814E302DD}"/>
-    <hyperlink ref="F33" r:id="rId37" xr:uid="{FCE17CA8-D2EE-4B2B-A840-8C79643E9AA1}"/>
-    <hyperlink ref="F52" r:id="rId38" xr:uid="{D269EAF8-32D0-41DA-8AA0-B1E159296A41}"/>
+    <hyperlink ref="F59" r:id="rId10" xr:uid="{057C4E32-6411-48A0-A955-811607A8685C}"/>
+    <hyperlink ref="F47" r:id="rId11" xr:uid="{F3AA9344-D6BB-4645-9AE8-33352B26572B}"/>
+    <hyperlink ref="F48" r:id="rId12" xr:uid="{05389B03-51DA-4596-B97A-B05B848B1568}"/>
+    <hyperlink ref="F49" r:id="rId13" xr:uid="{673933F5-AE4C-4D19-9FF2-2F59AFC3F5D5}"/>
+    <hyperlink ref="F51" r:id="rId14" xr:uid="{44404973-6C89-4028-938B-E5D90DCBE423}"/>
+    <hyperlink ref="F52" r:id="rId15" xr:uid="{116D8E0B-3140-4844-85AB-D40FCE69618E}"/>
+    <hyperlink ref="F41" r:id="rId16" xr:uid="{82629390-AC3E-4A68-8ECF-BE8FDB39D43D}"/>
+    <hyperlink ref="F42" r:id="rId17" xr:uid="{72B86828-AB9A-4008-95E4-0A08BF5226D0}"/>
+    <hyperlink ref="F5" r:id="rId18" xr:uid="{06046FFE-A198-4842-A3A9-F2336B8D2333}"/>
+    <hyperlink ref="F6" r:id="rId19" xr:uid="{9CB6AAC2-5586-4E44-94B1-FA3F89ADDB3D}"/>
+    <hyperlink ref="F7" r:id="rId20" xr:uid="{5A14520F-F507-480E-ADD0-FAC9DE84725D}"/>
+    <hyperlink ref="F8" r:id="rId21" xr:uid="{7B85981C-F9AB-454A-B211-1AAC3F35C0B7}"/>
+    <hyperlink ref="F9" r:id="rId22" xr:uid="{D91272D4-4E75-44C5-89EB-8ECB9EBC8B1D}"/>
+    <hyperlink ref="F11" r:id="rId23" xr:uid="{F09A1A80-4CA8-412D-89F2-C437AA64CE13}"/>
+    <hyperlink ref="F12" r:id="rId24" xr:uid="{CF7BCE0F-160E-4D09-B152-316BE8971316}"/>
+    <hyperlink ref="F13" r:id="rId25" xr:uid="{177EEFA0-D238-4802-985D-8CA122BEC31A}"/>
+    <hyperlink ref="F43" r:id="rId26" xr:uid="{4B3F6B25-94E0-45ED-82D6-44194A5D26CF}"/>
+    <hyperlink ref="F50" r:id="rId27" xr:uid="{FB426827-20B6-42F8-9547-93ABC7C5990E}"/>
+    <hyperlink ref="F27" r:id="rId28" xr:uid="{CC541A1A-C9A4-4570-8E4D-DD6E429ACE15}"/>
+    <hyperlink ref="F28" r:id="rId29" xr:uid="{7628B59D-8DB8-41FD-904D-8ED75673F6EF}"/>
+    <hyperlink ref="F29" r:id="rId30" xr:uid="{0B9BEE83-5B73-4D6D-B6A1-885D5D495E64}"/>
+    <hyperlink ref="F30" r:id="rId31" xr:uid="{68FCA54B-4433-4DC8-8BE0-08B3D901E5B4}"/>
+    <hyperlink ref="F32" r:id="rId32" xr:uid="{51A1F655-D4DB-4FBD-B02E-DD25A8F08C96}"/>
+    <hyperlink ref="F19" r:id="rId33" xr:uid="{33D09AD1-3019-4F27-BA7A-86146CC1394B}"/>
+    <hyperlink ref="F15" r:id="rId34" xr:uid="{4268AC7F-F98B-454B-99A7-709A890E0067}"/>
+    <hyperlink ref="F20" r:id="rId35" xr:uid="{F99B450A-7707-454C-B7F4-FC1814E302DD}"/>
+    <hyperlink ref="F33" r:id="rId36" xr:uid="{FCE17CA8-D2EE-4B2B-A840-8C79643E9AA1}"/>
+    <hyperlink ref="F53" r:id="rId37" xr:uid="{D269EAF8-32D0-41DA-8AA0-B1E159296A41}"/>
   </hyperlinks>
   <pageMargins left="0.62361111111111101" right="0.58055555555555605" top="0.48958333333333298" bottom="0.57430555555555596" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="8" scale="42" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup paperSize="8" scale="42" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
 </worksheet>
 </file>
--- a/KosmosV4System/doc/sourcing/ElectroniqueV4Mono.xlsx
+++ b/KosmosV4System/doc/sourcing/ElectroniqueV4Mono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofauvarq\Documents\GitHub\DocumentationsKOSMOS\KosmosV4System\doc\sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA983C5-DBA0-4DD7-905F-DA37169A5B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986FAA35-646B-46B9-91DB-07994802F270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-8400" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="189">
   <si>
     <t>Dernière mise à jour :</t>
   </si>
@@ -587,6 +587,24 @@
   </si>
   <si>
     <t>https://www.gotronic.fr/art-connecteur-rj45-4912.htm</t>
+  </si>
+  <si>
+    <t>Nappe caméra 50 cm</t>
+  </si>
+  <si>
+    <t>Nappe 50 cm CSI / MIPI caméra SC1130</t>
+  </si>
+  <si>
+    <t>https://www.gotronic.fr/art-nappe-50-cm-csi-mipi-camera-sc1130-38456.htm</t>
+  </si>
+  <si>
+    <t>38652</t>
+  </si>
+  <si>
+    <t>Qté : 1 si STEREO</t>
+  </si>
+  <si>
+    <t>Qté : 2 si STEREO</t>
   </si>
 </sst>
 </file>
@@ -597,7 +615,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -788,6 +806,11 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -937,7 +960,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1096,6 +1119,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1323,11 +1352,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFB114"/>
+  <dimension ref="A1:XFB115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1351,13 +1380,13 @@
     <col min="16382" max="16384" width="10.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10 16377:16382" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11 16377:16382" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>46045</v>
+        <v>46049</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
@@ -1368,8 +1397,8 @@
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:10 16377:16382" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10 16377:16382" s="15" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11 16377:16382" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11 16377:16382" s="15" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -1404,7 +1433,7 @@
       <c r="XFA3" s="16"/>
       <c r="XFB3" s="7"/>
     </row>
-    <row r="4" spans="1:10 16377:16382" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11 16377:16382" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>73</v>
       </c>
@@ -1421,7 +1450,7 @@
       <c r="XFA4" s="53"/>
       <c r="XFB4" s="52"/>
     </row>
-    <row r="5" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
@@ -1457,7 +1486,7 @@
       <c r="XFA5" s="6"/>
       <c r="XFB5" s="7"/>
     </row>
-    <row r="6" spans="1:10 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>19</v>
       </c>
@@ -1486,14 +1515,14 @@
         <v>6.9</v>
       </c>
       <c r="J6" s="23">
-        <f t="shared" ref="J6:J60" si="0">G6*I6</f>
+        <f t="shared" ref="J6:J61" si="0">G6*I6</f>
         <v>6.9</v>
       </c>
       <c r="XEZ6" s="7"/>
       <c r="XFA6" s="6"/>
       <c r="XFB6" s="7"/>
     </row>
-    <row r="7" spans="1:10 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1558,7 @@
       <c r="XFA7" s="6"/>
       <c r="XFB7" s="7"/>
     </row>
-    <row r="8" spans="1:10 16377:16382" s="31" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11 16377:16382" s="31" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
@@ -1561,9 +1590,12 @@
         <f t="shared" si="0"/>
         <v>69.900000000000006</v>
       </c>
+      <c r="K8" s="60" t="s">
+        <v>188</v>
+      </c>
       <c r="XFB8" s="7"/>
     </row>
-    <row r="9" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -1599,79 +1631,82 @@
       <c r="XFA9" s="6"/>
       <c r="XFB9" s="7"/>
     </row>
-    <row r="10" spans="1:10 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>183</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="56">
-        <v>36973</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="22">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="59">
+        <v>0</v>
       </c>
       <c r="H10" s="23">
-        <v>16.579999999999998</v>
+        <v>3.75</v>
       </c>
       <c r="I10" s="23">
-        <v>19.899999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J10" s="23">
         <f t="shared" si="0"/>
-        <v>19.899999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="XEZ10" s="7"/>
       <c r="XFA10" s="6"/>
       <c r="XFB10" s="7"/>
     </row>
-    <row r="11" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>66</v>
+      <c r="C11" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>119</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="56">
+        <v>36973</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="G11" s="22">
         <v>1</v>
       </c>
       <c r="H11" s="23">
-        <v>9.1199999999999992</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="I11" s="23">
-        <v>10.95</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="J11" s="23">
         <f t="shared" si="0"/>
-        <v>10.95</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="XEZ11" s="7"/>
       <c r="XFA11" s="6"/>
       <c r="XFB11" s="7"/>
     </row>
-    <row r="12" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
@@ -1679,110 +1714,110 @@
         <v>167</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="22">
         <v>1</v>
       </c>
       <c r="H12" s="23">
-        <v>6.92</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I12" s="23">
-        <v>8.3000000000000007</v>
+        <v>10.95</v>
       </c>
       <c r="J12" s="23">
         <f t="shared" si="0"/>
-        <v>8.3000000000000007</v>
+        <v>10.95</v>
       </c>
       <c r="XEZ12" s="7"/>
       <c r="XFA12" s="6"/>
       <c r="XFB12" s="7"/>
     </row>
-    <row r="13" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>71</v>
+        <v>167</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="56">
-        <v>11583</v>
+        <v>95</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>94</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="22">
         <v>1</v>
       </c>
-      <c r="H13" s="32">
-        <v>10.67</v>
+      <c r="H13" s="23">
+        <v>6.92</v>
       </c>
       <c r="I13" s="23">
-        <v>12.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J13" s="23">
         <f t="shared" si="0"/>
-        <v>12.8</v>
-      </c>
-      <c r="XEW13" s="6"/>
-      <c r="XEX13" s="6"/>
-      <c r="XEY13" s="6"/>
+        <v>8.3000000000000007</v>
+      </c>
       <c r="XEZ13" s="7"/>
       <c r="XFA13" s="6"/>
       <c r="XFB13" s="7"/>
     </row>
-    <row r="14" spans="1:10 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E14" s="56">
-        <v>48948</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>25</v>
+        <v>11583</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="G14" s="22">
         <v>1</v>
       </c>
-      <c r="H14" s="23">
-        <v>0.21</v>
+      <c r="H14" s="32">
+        <v>10.67</v>
       </c>
       <c r="I14" s="23">
-        <v>0.25</v>
+        <v>12.8</v>
       </c>
       <c r="J14" s="23">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
+        <v>12.8</v>
+      </c>
+      <c r="XEW14" s="6"/>
+      <c r="XEX14" s="6"/>
+      <c r="XEY14" s="6"/>
       <c r="XEZ14" s="7"/>
       <c r="XFA14" s="6"/>
       <c r="XFB14" s="7"/>
     </row>
-    <row r="15" spans="1:10 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
@@ -1790,35 +1825,35 @@
         <v>167</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>164</v>
+        <v>24</v>
+      </c>
+      <c r="E15" s="56">
+        <v>48948</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="G15" s="22">
         <v>1</v>
       </c>
       <c r="H15" s="23">
-        <v>3.79</v>
+        <v>0.21</v>
       </c>
       <c r="I15" s="23">
-        <v>4.55</v>
+        <v>0.25</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" si="0"/>
-        <v>4.55</v>
+        <v>0.25</v>
       </c>
       <c r="XEZ15" s="7"/>
       <c r="XFA15" s="6"/>
       <c r="XFB15" s="7"/>
     </row>
-    <row r="16" spans="1:10 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>19</v>
       </c>
@@ -1826,19 +1861,29 @@
         <v>167</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="18"/>
+        <v>162</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>164</v>
+      </c>
       <c r="G16" s="22">
         <v>1</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="23">
+        <v>3.79</v>
+      </c>
+      <c r="I16" s="23">
+        <v>4.55</v>
+      </c>
       <c r="J16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="XEZ16" s="7"/>
       <c r="XFA16" s="6"/>
@@ -1852,7 +1897,7 @@
         <v>167</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="56"/>
@@ -1878,13 +1923,13 @@
         <v>167</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="56"/>
       <c r="F18" s="18"/>
       <c r="G18" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -1904,69 +1949,56 @@
         <v>167</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>155</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="22">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="23">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="XEZ19" s="7"/>
       <c r="XFA19" s="6"/>
       <c r="XFB19" s="7"/>
     </row>
-    <row r="20" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>20</v>
+        <v>167</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="G20" s="22">
         <v>1</v>
       </c>
-      <c r="H20" s="32">
-        <v>2.08</v>
+      <c r="H20" s="23">
+        <v>0.25</v>
       </c>
       <c r="I20" s="23">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" ref="J20" si="1">G20*I20</f>
-        <v>2.5</v>
-      </c>
-      <c r="XEW20" s="6"/>
-      <c r="XEX20" s="6"/>
-      <c r="XEY20" s="6"/>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
       <c r="XEZ20" s="7"/>
       <c r="XFA20" s="6"/>
       <c r="XFB20" s="7"/>
@@ -1976,33 +2008,36 @@
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="56">
-        <v>49012</v>
+        <v>165</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>166</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G21" s="22">
-        <v>2</v>
-      </c>
-      <c r="H21" s="23">
-        <v>1.21</v>
+        <v>1</v>
+      </c>
+      <c r="H21" s="32">
+        <v>2.08</v>
       </c>
       <c r="I21" s="23">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="0"/>
-        <v>2.9</v>
-      </c>
+        <f t="shared" ref="J21" si="1">G21*I21</f>
+        <v>2.5</v>
+      </c>
+      <c r="XEW21" s="6"/>
+      <c r="XEX21" s="6"/>
+      <c r="XEY21" s="6"/>
       <c r="XEZ21" s="7"/>
       <c r="XFA21" s="6"/>
       <c r="XFB21" s="7"/>
@@ -2015,105 +2050,105 @@
         <v>76</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="56">
-        <v>49006</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>60</v>
+        <v>49012</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="G22" s="22">
         <v>2</v>
       </c>
       <c r="H22" s="23">
-        <v>0.62</v>
+        <v>1.21</v>
       </c>
       <c r="I22" s="23">
-        <v>0.75</v>
+        <v>1.45</v>
       </c>
       <c r="J22" s="23">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="XEZ22" s="7"/>
       <c r="XFA22" s="6"/>
       <c r="XFB22" s="7"/>
     </row>
-    <row r="23" spans="1:10 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>122</v>
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="56">
+        <v>49006</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="G23" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="23">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="I23" s="23">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J23" s="23">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="XEW23" s="6"/>
-      <c r="XEX23" s="6"/>
-      <c r="XEY23" s="6"/>
+        <v>1.5</v>
+      </c>
       <c r="XEZ23" s="7"/>
       <c r="XFA23" s="6"/>
       <c r="XFB23" s="7"/>
     </row>
-    <row r="24" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10 16377:16382" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>62</v>
+      <c r="C24" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="56">
-        <v>25952</v>
+        <v>79</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="G24" s="22">
         <v>1</v>
       </c>
       <c r="H24" s="23">
-        <v>21.25</v>
+        <v>0.42</v>
       </c>
       <c r="I24" s="23">
-        <v>25.5</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="0"/>
-        <v>25.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="XEW24" s="6"/>
+      <c r="XEX24" s="6"/>
+      <c r="XEY24" s="6"/>
       <c r="XEZ24" s="7"/>
       <c r="XFA24" s="6"/>
       <c r="XFB24" s="7"/>
@@ -2123,32 +2158,32 @@
         <v>19</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E25" s="56">
-        <v>11356</v>
+        <v>25952</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="G25" s="22">
         <v>1</v>
       </c>
       <c r="H25" s="23">
-        <v>1.92</v>
+        <v>21.25</v>
       </c>
       <c r="I25" s="23">
-        <v>2.2999999999999998</v>
+        <v>25.5</v>
       </c>
       <c r="J25" s="23">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>25.5</v>
       </c>
       <c r="XEZ25" s="7"/>
       <c r="XFA25" s="6"/>
@@ -2159,32 +2194,32 @@
         <v>19</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>52</v>
+        <v>82</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E26" s="56">
-        <v>48918</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>54</v>
+        <v>11356</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="G26" s="22">
         <v>1</v>
       </c>
       <c r="H26" s="23">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="I26" s="23">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J26" s="23">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="XEZ26" s="7"/>
       <c r="XFA26" s="6"/>
@@ -2195,32 +2230,32 @@
         <v>19</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>129</v>
+        <v>53</v>
+      </c>
+      <c r="E27" s="56">
+        <v>48918</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="G27" s="22">
         <v>1</v>
       </c>
       <c r="H27" s="23">
-        <v>0.79</v>
+        <v>1.83</v>
       </c>
       <c r="I27" s="23">
-        <v>0.95</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J27" s="23">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="XEZ27" s="7"/>
       <c r="XFA27" s="6"/>
@@ -2234,16 +2269,16 @@
         <v>126</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G28" s="22">
         <v>1</v>
@@ -2270,29 +2305,29 @@
         <v>126</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G29" s="22">
         <v>1</v>
       </c>
       <c r="H29" s="23">
-        <v>3.92</v>
+        <v>0.79</v>
       </c>
       <c r="I29" s="23">
-        <v>4.7</v>
+        <v>0.95</v>
       </c>
       <c r="J29" s="23">
         <f t="shared" si="0"/>
-        <v>4.7</v>
+        <v>0.95</v>
       </c>
       <c r="XEZ29" s="7"/>
       <c r="XFA29" s="6"/>
@@ -2306,16 +2341,16 @@
         <v>126</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G30" s="22">
         <v>1</v>
@@ -2342,29 +2377,29 @@
         <v>126</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G31" s="22">
         <v>1</v>
       </c>
       <c r="H31" s="23">
-        <v>0.96</v>
+        <v>3.92</v>
       </c>
       <c r="I31" s="23">
-        <v>1.1499999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="J31" s="23">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="XEZ31" s="7"/>
       <c r="XFA31" s="6"/>
@@ -2378,16 +2413,16 @@
         <v>126</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G32" s="22">
         <v>1</v>
@@ -2406,212 +2441,228 @@
       <c r="XFA32" s="6"/>
       <c r="XFB32" s="7"/>
     </row>
-    <row r="33" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>33</v>
+        <v>126</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G33" s="22">
         <v>1</v>
       </c>
       <c r="H33" s="23">
-        <v>21.58</v>
+        <v>0.96</v>
       </c>
       <c r="I33" s="23">
-        <v>25.9</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J33" s="23">
-        <f t="shared" ref="J33:J37" si="2">G33*I33</f>
-        <v>25.9</v>
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="XEZ33" s="7"/>
       <c r="XFA33" s="6"/>
       <c r="XFB33" s="7"/>
     </row>
-    <row r="34" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G34" s="22">
         <v>1</v>
       </c>
       <c r="H34" s="23">
-        <v>14.12</v>
+        <v>21.58</v>
       </c>
       <c r="I34" s="23">
-        <v>16.95</v>
+        <v>25.9</v>
       </c>
       <c r="J34" s="23">
-        <f t="shared" si="2"/>
-        <v>16.95</v>
+        <f t="shared" ref="J34:J38" si="2">G34*I34</f>
+        <v>25.9</v>
       </c>
       <c r="XEZ34" s="7"/>
       <c r="XFA34" s="6"/>
       <c r="XFB34" s="7"/>
     </row>
-    <row r="35" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G35" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="23">
-        <v>0.25</v>
+        <v>14.12</v>
       </c>
       <c r="I35" s="23">
-        <v>0.3</v>
+        <v>16.95</v>
       </c>
       <c r="J35" s="23">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>16.95</v>
       </c>
       <c r="XEZ35" s="7"/>
       <c r="XFA35" s="6"/>
       <c r="XFB35" s="7"/>
     </row>
-    <row r="36" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+    <row r="36" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="22">
+        <v>2</v>
+      </c>
+      <c r="H36" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0.3</v>
+      </c>
       <c r="J36" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="XEZ36" s="7"/>
       <c r="XFA36" s="6"/>
       <c r="XFB36" s="7"/>
     </row>
-    <row r="37" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
-        <v>75</v>
-      </c>
+    <row r="37" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="24"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="18"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="18"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="32"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="XEW37" s="6"/>
-      <c r="XEX37" s="6"/>
-      <c r="XEY37" s="6"/>
       <c r="XEZ37" s="7"/>
       <c r="XFA37" s="6"/>
       <c r="XFB37" s="7"/>
     </row>
-    <row r="38" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>16</v>
-      </c>
+    <row r="38" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="22">
-        <v>1</v>
-      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="32"/>
-      <c r="I38" s="23">
-        <v>260</v>
-      </c>
+      <c r="I38" s="23"/>
       <c r="J38" s="23">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="XEW38" s="6"/>
+      <c r="XEX38" s="6"/>
+      <c r="XEY38" s="6"/>
       <c r="XEZ38" s="7"/>
       <c r="XFA38" s="6"/>
       <c r="XFB38" s="7"/>
     </row>
-    <row r="39" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="18"/>
+    <row r="39" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="E39" s="19"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="22">
+        <v>1</v>
+      </c>
       <c r="H39" s="32"/>
-      <c r="I39" s="23"/>
+      <c r="I39" s="23">
+        <v>260</v>
+      </c>
       <c r="J39" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="XEW39" s="6"/>
-      <c r="XEX39" s="6"/>
-      <c r="XEY39" s="6"/>
+        <v>260</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="XEZ39" s="7"/>
       <c r="XFA39" s="6"/>
       <c r="XFB39" s="7"/>
     </row>
-    <row r="40" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>101</v>
-      </c>
+    <row r="40" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
       <c r="B40" s="19"/>
       <c r="C40" s="24"/>
       <c r="D40" s="18"/>
@@ -2631,37 +2682,21 @@
       <c r="XFA40" s="6"/>
       <c r="XFB40" s="7"/>
     </row>
-    <row r="41" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="22">
-        <v>1</v>
-      </c>
-      <c r="H41" s="32">
-        <v>67.790000000000006</v>
-      </c>
-      <c r="I41" s="23">
-        <v>81.34</v>
-      </c>
+    <row r="41" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="23">
         <f t="shared" si="0"/>
-        <v>81.34</v>
+        <v>0</v>
       </c>
       <c r="XEW41" s="6"/>
       <c r="XEX41" s="6"/>
@@ -2670,7 +2705,7 @@
       <c r="XFA41" s="6"/>
       <c r="XFB41" s="7"/>
     </row>
-    <row r="42" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>102</v>
       </c>
@@ -2678,29 +2713,29 @@
         <v>84</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G42" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="32">
-        <v>1.96</v>
+        <v>67.790000000000006</v>
       </c>
       <c r="I42" s="23">
-        <v>2.35</v>
+        <v>81.34</v>
       </c>
       <c r="J42" s="23">
         <f t="shared" si="0"/>
-        <v>4.7</v>
+        <v>81.34</v>
       </c>
       <c r="XEW42" s="6"/>
       <c r="XEX42" s="6"/>
@@ -2709,37 +2744,37 @@
       <c r="XFA42" s="6"/>
       <c r="XFB42" s="7"/>
     </row>
-    <row r="43" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>102</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G43" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="32">
-        <v>57.31</v>
+        <v>1.96</v>
       </c>
       <c r="I43" s="23">
-        <v>68.77</v>
+        <v>2.35</v>
       </c>
       <c r="J43" s="23">
-        <f>G43*I43</f>
-        <v>68.77</v>
+        <f t="shared" si="0"/>
+        <v>4.7</v>
       </c>
       <c r="XEW43" s="6"/>
       <c r="XEX43" s="6"/>
@@ -2748,19 +2783,37 @@
       <c r="XFA43" s="6"/>
       <c r="XFB43" s="7"/>
     </row>
-    <row r="44" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="23"/>
+    <row r="44" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="22">
+        <v>1</v>
+      </c>
+      <c r="H44" s="32">
+        <v>57.31</v>
+      </c>
+      <c r="I44" s="23">
+        <v>68.77</v>
+      </c>
       <c r="J44" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G44*I44</f>
+        <v>68.77</v>
       </c>
       <c r="XEW44" s="6"/>
       <c r="XEX44" s="6"/>
@@ -2769,117 +2822,106 @@
       <c r="XFA44" s="6"/>
       <c r="XFB44" s="7"/>
     </row>
-    <row r="45" spans="1:10 16377:16382" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
+    <row r="45" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="XEW45" s="6"/>
+      <c r="XEX45" s="6"/>
+      <c r="XEY45" s="6"/>
+      <c r="XEZ45" s="7"/>
+      <c r="XFA45" s="6"/>
+      <c r="XFB45" s="7"/>
+    </row>
+    <row r="46" spans="1:11 16377:16382" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="23">
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="XEZ45" s="7"/>
-      <c r="XFA45" s="16"/>
-      <c r="XFB45" s="7"/>
-    </row>
-    <row r="46" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="22">
-        <v>1</v>
-      </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23">
-        <v>15.99</v>
-      </c>
-      <c r="J46" s="23">
-        <f t="shared" si="0"/>
-        <v>15.99</v>
-      </c>
       <c r="XEZ46" s="7"/>
-      <c r="XFA46" s="6"/>
+      <c r="XFA46" s="16"/>
       <c r="XFB46" s="7"/>
     </row>
-    <row r="47" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="40" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="G47" s="22">
         <v>1</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="23">
-        <v>17.38</v>
+        <v>15.99</v>
       </c>
       <c r="J47" s="23">
         <f t="shared" si="0"/>
-        <v>17.38</v>
+        <v>15.99</v>
       </c>
       <c r="XEZ47" s="7"/>
       <c r="XFA47" s="6"/>
       <c r="XFB47" s="7"/>
     </row>
-    <row r="48" spans="1:10 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11 16377:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G48" s="22">
         <v>1</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23">
-        <v>9.99</v>
+        <v>17.38</v>
       </c>
       <c r="J48" s="23">
         <f t="shared" si="0"/>
-        <v>9.99</v>
+        <v>17.38</v>
       </c>
       <c r="XEZ48" s="7"/>
       <c r="XFA48" s="6"/>
@@ -2893,25 +2935,25 @@
         <v>82</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G49" s="22">
         <v>1</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="23">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="J49" s="23">
         <f t="shared" si="0"/>
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="XEZ49" s="7"/>
       <c r="XFA49" s="6"/>
@@ -2922,28 +2964,28 @@
         <v>29</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="40" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="G50" s="22">
         <v>1</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="23">
-        <v>35.99</v>
+        <v>14.99</v>
       </c>
       <c r="J50" s="23">
         <f t="shared" si="0"/>
-        <v>35.99</v>
+        <v>14.99</v>
       </c>
       <c r="XEZ50" s="7"/>
       <c r="XFA50" s="6"/>
@@ -2954,28 +2996,28 @@
         <v>29</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>30</v>
+        <v>83</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="40" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G51" s="22">
         <v>1</v>
       </c>
       <c r="H51" s="23"/>
       <c r="I51" s="23">
-        <v>11.89</v>
+        <v>35.99</v>
       </c>
       <c r="J51" s="23">
         <f t="shared" si="0"/>
-        <v>11.89</v>
+        <v>35.99</v>
       </c>
       <c r="XEZ51" s="7"/>
       <c r="XFA51" s="6"/>
@@ -2986,28 +3028,28 @@
         <v>29</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="40" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="G52" s="22">
         <v>1</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23">
-        <v>58.99</v>
+        <v>11.89</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="0"/>
-        <v>58.99</v>
+        <v>11.89</v>
       </c>
       <c r="XEZ52" s="7"/>
       <c r="XFA52" s="6"/>
@@ -3018,206 +3060,226 @@
         <v>29</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="40" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="G53" s="22">
         <v>1</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" s="23">
-        <v>29.99</v>
+        <v>58.99</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>58.99</v>
       </c>
       <c r="XEZ53" s="7"/>
       <c r="XFA53" s="6"/>
       <c r="XFB53" s="7"/>
     </row>
     <row r="54" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="18"/>
+      <c r="A54" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="E54" s="19"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="22"/>
+      <c r="F54" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="22">
+        <v>1</v>
+      </c>
       <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
+      <c r="I54" s="23">
+        <v>29.99</v>
+      </c>
       <c r="J54" s="23">
-        <f>G54*I54</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>29.99</v>
       </c>
       <c r="XEZ54" s="7"/>
       <c r="XFA54" s="6"/>
       <c r="XFB54" s="7"/>
     </row>
     <row r="55" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
-        <v>81</v>
-      </c>
+      <c r="A55" s="20"/>
       <c r="B55" s="19"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="42"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="22"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="43"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="23">
-        <f t="shared" si="0"/>
+        <f>G55*I55</f>
         <v>0</v>
       </c>
       <c r="XEZ55" s="7"/>
       <c r="XFA55" s="6"/>
       <c r="XFB55" s="7"/>
     </row>
-    <row r="56" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+    <row r="56" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="XEZ56" s="7"/>
+      <c r="XFA56" s="6"/>
+      <c r="XFB56" s="7"/>
+    </row>
+    <row r="57" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B57" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C57" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D57" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="28" t="s">
+      <c r="E57" s="35"/>
+      <c r="F57" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G57" s="36">
         <v>9</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H57" s="30">
         <v>7.08</v>
       </c>
-      <c r="I56" s="49">
-        <f>H56*1.2</f>
+      <c r="I57" s="49">
+        <f>H57*1.2</f>
         <v>8.4960000000000004</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J57" s="23">
         <f t="shared" si="0"/>
         <v>76.463999999999999</v>
       </c>
-      <c r="XFA56" s="6"/>
-    </row>
-    <row r="57" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="23">
+      <c r="XFA57" s="6"/>
+    </row>
+    <row r="58" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="XFA57" s="6"/>
-    </row>
-    <row r="58" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
+      <c r="XFA58" s="6"/>
+    </row>
+    <row r="59" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="23">
+      <c r="B59" s="33"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="XEZ58" s="7"/>
-      <c r="XFA58" s="6"/>
-      <c r="XFB58" s="7"/>
-    </row>
-    <row r="59" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" s="22">
-        <v>1</v>
-      </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="50">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J59" s="23">
-        <f t="shared" si="0"/>
-        <v>2.0499999999999998</v>
       </c>
       <c r="XEZ59" s="7"/>
       <c r="XFA59" s="6"/>
       <c r="XFB59" s="7"/>
     </row>
-    <row r="60" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="43"/>
+    <row r="60" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="33"/>
+      <c r="F60" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="22">
+        <v>1</v>
+      </c>
+      <c r="H60" s="23"/>
+      <c r="I60" s="50">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="J60" s="23">
         <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="XEZ60" s="7"/>
+      <c r="XFA60" s="6"/>
+      <c r="XFB60" s="7"/>
+    </row>
+    <row r="61" spans="1:10 16380:16382" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="5"/>
-      <c r="XEZ61" s="7"/>
-      <c r="XFA61" s="6"/>
-      <c r="XFB61" s="7"/>
-    </row>
-    <row r="62" spans="1:10 16380:16382" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10 16380:16382" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="I62" s="39"/>
       <c r="J62" s="5"/>
       <c r="XEZ62" s="7"/>
       <c r="XFA62" s="6"/>
@@ -3283,10 +3345,17 @@
       <c r="XFA67" s="6"/>
       <c r="XFB67" s="7"/>
     </row>
-    <row r="68" spans="2:10 16377:16382" x14ac:dyDescent="0.25">
-      <c r="XEW68" s="4"/>
-      <c r="XEX68" s="4"/>
-      <c r="XEY68" s="4"/>
+    <row r="68" spans="2:10 16377:16382" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="XEZ68" s="7"/>
+      <c r="XFA68" s="6"/>
+      <c r="XFB68" s="7"/>
     </row>
     <row r="69" spans="2:10 16377:16382" x14ac:dyDescent="0.25">
       <c r="XEW69" s="4"/>
@@ -3517,6 +3586,11 @@
       <c r="XEW114" s="4"/>
       <c r="XEX114" s="4"/>
       <c r="XEY114" s="4"/>
+    </row>
+    <row r="115" spans="16377:16379" x14ac:dyDescent="0.25">
+      <c r="XEW115" s="4"/>
+      <c r="XEX115" s="4"/>
+      <c r="XEY115" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3524,43 +3598,43 @@
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F46" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F38" r:id="rId4" xr:uid="{BFB26870-5BB8-42FF-8741-2856056A352B}"/>
-    <hyperlink ref="F26" r:id="rId5" xr:uid="{DF8E217F-59F6-4C9A-8701-2A1B8851FC16}"/>
-    <hyperlink ref="F24" r:id="rId6" xr:uid="{C9A34607-A756-4ACB-9F50-B04E922DDE6B}"/>
-    <hyperlink ref="F22" r:id="rId7" xr:uid="{64F96D35-1B54-467E-94A7-D1CF6149899D}"/>
-    <hyperlink ref="F21" r:id="rId8" xr:uid="{C71BCB4E-920E-44B9-8E06-77FBBC7EDA38}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{C7AD9874-BDC0-4876-895E-DC67D04E63DF}"/>
-    <hyperlink ref="F59" r:id="rId10" xr:uid="{057C4E32-6411-48A0-A955-811607A8685C}"/>
-    <hyperlink ref="F47" r:id="rId11" xr:uid="{F3AA9344-D6BB-4645-9AE8-33352B26572B}"/>
-    <hyperlink ref="F48" r:id="rId12" xr:uid="{05389B03-51DA-4596-B97A-B05B848B1568}"/>
-    <hyperlink ref="F49" r:id="rId13" xr:uid="{673933F5-AE4C-4D19-9FF2-2F59AFC3F5D5}"/>
-    <hyperlink ref="F51" r:id="rId14" xr:uid="{44404973-6C89-4028-938B-E5D90DCBE423}"/>
-    <hyperlink ref="F52" r:id="rId15" xr:uid="{116D8E0B-3140-4844-85AB-D40FCE69618E}"/>
-    <hyperlink ref="F41" r:id="rId16" xr:uid="{82629390-AC3E-4A68-8ECF-BE8FDB39D43D}"/>
-    <hyperlink ref="F42" r:id="rId17" xr:uid="{72B86828-AB9A-4008-95E4-0A08BF5226D0}"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F57" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F47" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F39" r:id="rId4" xr:uid="{BFB26870-5BB8-42FF-8741-2856056A352B}"/>
+    <hyperlink ref="F27" r:id="rId5" xr:uid="{DF8E217F-59F6-4C9A-8701-2A1B8851FC16}"/>
+    <hyperlink ref="F25" r:id="rId6" xr:uid="{C9A34607-A756-4ACB-9F50-B04E922DDE6B}"/>
+    <hyperlink ref="F23" r:id="rId7" xr:uid="{64F96D35-1B54-467E-94A7-D1CF6149899D}"/>
+    <hyperlink ref="F22" r:id="rId8" xr:uid="{C71BCB4E-920E-44B9-8E06-77FBBC7EDA38}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{C7AD9874-BDC0-4876-895E-DC67D04E63DF}"/>
+    <hyperlink ref="F60" r:id="rId10" xr:uid="{057C4E32-6411-48A0-A955-811607A8685C}"/>
+    <hyperlink ref="F48" r:id="rId11" xr:uid="{F3AA9344-D6BB-4645-9AE8-33352B26572B}"/>
+    <hyperlink ref="F49" r:id="rId12" xr:uid="{05389B03-51DA-4596-B97A-B05B848B1568}"/>
+    <hyperlink ref="F50" r:id="rId13" xr:uid="{673933F5-AE4C-4D19-9FF2-2F59AFC3F5D5}"/>
+    <hyperlink ref="F52" r:id="rId14" xr:uid="{44404973-6C89-4028-938B-E5D90DCBE423}"/>
+    <hyperlink ref="F53" r:id="rId15" xr:uid="{116D8E0B-3140-4844-85AB-D40FCE69618E}"/>
+    <hyperlink ref="F42" r:id="rId16" xr:uid="{82629390-AC3E-4A68-8ECF-BE8FDB39D43D}"/>
+    <hyperlink ref="F43" r:id="rId17" xr:uid="{72B86828-AB9A-4008-95E4-0A08BF5226D0}"/>
     <hyperlink ref="F5" r:id="rId18" xr:uid="{06046FFE-A198-4842-A3A9-F2336B8D2333}"/>
     <hyperlink ref="F6" r:id="rId19" xr:uid="{9CB6AAC2-5586-4E44-94B1-FA3F89ADDB3D}"/>
     <hyperlink ref="F7" r:id="rId20" xr:uid="{5A14520F-F507-480E-ADD0-FAC9DE84725D}"/>
     <hyperlink ref="F8" r:id="rId21" xr:uid="{7B85981C-F9AB-454A-B211-1AAC3F35C0B7}"/>
     <hyperlink ref="F9" r:id="rId22" xr:uid="{D91272D4-4E75-44C5-89EB-8ECB9EBC8B1D}"/>
-    <hyperlink ref="F11" r:id="rId23" xr:uid="{F09A1A80-4CA8-412D-89F2-C437AA64CE13}"/>
-    <hyperlink ref="F12" r:id="rId24" xr:uid="{CF7BCE0F-160E-4D09-B152-316BE8971316}"/>
-    <hyperlink ref="F13" r:id="rId25" xr:uid="{177EEFA0-D238-4802-985D-8CA122BEC31A}"/>
-    <hyperlink ref="F43" r:id="rId26" xr:uid="{4B3F6B25-94E0-45ED-82D6-44194A5D26CF}"/>
-    <hyperlink ref="F50" r:id="rId27" xr:uid="{FB426827-20B6-42F8-9547-93ABC7C5990E}"/>
-    <hyperlink ref="F27" r:id="rId28" xr:uid="{CC541A1A-C9A4-4570-8E4D-DD6E429ACE15}"/>
-    <hyperlink ref="F28" r:id="rId29" xr:uid="{7628B59D-8DB8-41FD-904D-8ED75673F6EF}"/>
-    <hyperlink ref="F29" r:id="rId30" xr:uid="{0B9BEE83-5B73-4D6D-B6A1-885D5D495E64}"/>
-    <hyperlink ref="F30" r:id="rId31" xr:uid="{68FCA54B-4433-4DC8-8BE0-08B3D901E5B4}"/>
-    <hyperlink ref="F32" r:id="rId32" xr:uid="{51A1F655-D4DB-4FBD-B02E-DD25A8F08C96}"/>
-    <hyperlink ref="F19" r:id="rId33" xr:uid="{33D09AD1-3019-4F27-BA7A-86146CC1394B}"/>
-    <hyperlink ref="F15" r:id="rId34" xr:uid="{4268AC7F-F98B-454B-99A7-709A890E0067}"/>
-    <hyperlink ref="F20" r:id="rId35" xr:uid="{F99B450A-7707-454C-B7F4-FC1814E302DD}"/>
-    <hyperlink ref="F33" r:id="rId36" xr:uid="{FCE17CA8-D2EE-4B2B-A840-8C79643E9AA1}"/>
-    <hyperlink ref="F53" r:id="rId37" xr:uid="{D269EAF8-32D0-41DA-8AA0-B1E159296A41}"/>
+    <hyperlink ref="F12" r:id="rId23" xr:uid="{F09A1A80-4CA8-412D-89F2-C437AA64CE13}"/>
+    <hyperlink ref="F13" r:id="rId24" xr:uid="{CF7BCE0F-160E-4D09-B152-316BE8971316}"/>
+    <hyperlink ref="F14" r:id="rId25" xr:uid="{177EEFA0-D238-4802-985D-8CA122BEC31A}"/>
+    <hyperlink ref="F44" r:id="rId26" xr:uid="{4B3F6B25-94E0-45ED-82D6-44194A5D26CF}"/>
+    <hyperlink ref="F51" r:id="rId27" xr:uid="{FB426827-20B6-42F8-9547-93ABC7C5990E}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{CC541A1A-C9A4-4570-8E4D-DD6E429ACE15}"/>
+    <hyperlink ref="F29" r:id="rId29" xr:uid="{7628B59D-8DB8-41FD-904D-8ED75673F6EF}"/>
+    <hyperlink ref="F30" r:id="rId30" xr:uid="{0B9BEE83-5B73-4D6D-B6A1-885D5D495E64}"/>
+    <hyperlink ref="F31" r:id="rId31" xr:uid="{68FCA54B-4433-4DC8-8BE0-08B3D901E5B4}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{51A1F655-D4DB-4FBD-B02E-DD25A8F08C96}"/>
+    <hyperlink ref="F20" r:id="rId33" xr:uid="{33D09AD1-3019-4F27-BA7A-86146CC1394B}"/>
+    <hyperlink ref="F16" r:id="rId34" xr:uid="{4268AC7F-F98B-454B-99A7-709A890E0067}"/>
+    <hyperlink ref="F21" r:id="rId35" xr:uid="{F99B450A-7707-454C-B7F4-FC1814E302DD}"/>
+    <hyperlink ref="F34" r:id="rId36" xr:uid="{FCE17CA8-D2EE-4B2B-A840-8C79643E9AA1}"/>
+    <hyperlink ref="F54" r:id="rId37" xr:uid="{D269EAF8-32D0-41DA-8AA0-B1E159296A41}"/>
   </hyperlinks>
   <pageMargins left="0.62361111111111101" right="0.58055555555555605" top="0.48958333333333298" bottom="0.57430555555555596" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="8" scale="42" fitToWidth="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
